--- a/DATA_goal/Junction_Flooding_357.xlsx
+++ b/DATA_goal/Junction_Flooding_357.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40442.55555555555</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.5625</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.99</v>
+        <v>49.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40442.56944444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.84</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.59</v>
+        <v>25.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.14</v>
+        <v>101.38</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.72</v>
+        <v>27.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.5</v>
+        <v>45.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.96</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.36</v>
+        <v>33.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.08</v>
+        <v>40.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_357.xlsx
+++ b/DATA_goal/Junction_Flooding_357.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40442.55555555555</v>
+        <v>45038.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40442.5625</v>
+        <v>45038.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.35</v>
+        <v>2.132</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.44</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.98</v>
+        <v>0.712</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.83</v>
+        <v>1.299</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.05</v>
+        <v>1.235</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.63</v>
+        <v>3.715</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.53</v>
+        <v>0.467</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.99</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.71</v>
+        <v>1.665</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.17</v>
+        <v>0.429</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.47</v>
+        <v>0.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.269</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.74</v>
+        <v>0.246</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.92</v>
+        <v>1.507</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.31</v>
+        <v>0.361</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.348</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.9</v>
+        <v>3.735</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.58</v>
+        <v>2.189</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.45</v>
+        <v>1.028</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.62</v>
+        <v>1.749</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.13</v>
+        <v>0.441</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.099</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.61</v>
+        <v>1.782</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.84</v>
+        <v>0.522</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.33</v>
+        <v>0.156</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.18</v>
+        <v>0.288</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.84</v>
+        <v>1.482</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.25</v>
+        <v>2.803</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.35</v>
+        <v>0.099</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.98</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40442.56944444445</v>
+        <v>45038.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>17.072</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.72</v>
+        <v>12.381</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.472</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.57</v>
+        <v>34.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.84</v>
+        <v>29.123</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.65</v>
+        <v>13.209</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.94</v>
+        <v>42.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.85</v>
+        <v>19.289</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.25</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.27</v>
+        <v>13.823</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.95</v>
+        <v>14.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>14.589</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.25</v>
+        <v>4.108</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.12</v>
+        <v>12.453</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>18.556</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.07</v>
+        <v>10.401</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.403</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.428</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.38</v>
+        <v>186.957</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.89</v>
+        <v>35.535</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.57</v>
+        <v>12.022</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.07</v>
+        <v>24.166</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.35</v>
+        <v>12.456</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.676</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.07</v>
+        <v>21.977</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.7</v>
+        <v>10.382</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.59</v>
+        <v>8.887</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.68</v>
+        <v>10.535</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.65</v>
+        <v>15.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.32</v>
+        <v>38.297</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>6.525</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.01</v>
+        <v>14.522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40442.57638888889</v>
+        <v>45038.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.12</v>
+        <v>9.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.43</v>
+        <v>6.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.24</v>
+        <v>19.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.21</v>
+        <v>16.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.68</v>
+        <v>7.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.03</v>
+        <v>30.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.46</v>
+        <v>10.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>4.97</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.37</v>
+        <v>7.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.41</v>
+        <v>7.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.21</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.84</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.01</v>
+        <v>6.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.96</v>
+        <v>10.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.09</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.79</v>
+        <v>101.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.6</v>
+        <v>20.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.09</v>
+        <v>6.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.46</v>
+        <v>13.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.15</v>
+        <v>6.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.42</v>
+        <v>14.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.73</v>
+        <v>5.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.99</v>
+        <v>4.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.63</v>
+        <v>5.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.76</v>
+        <v>27.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.51</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.58332175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_357.xlsx
+++ b/DATA_goal/Junction_Flooding_357.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45038.50694444445</v>
+        <v>40442.55555555555</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45038.51388888889</v>
+        <v>40442.5625</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.132</v>
+        <v>4.353</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>3.438</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.712</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.299</v>
+        <v>7.825</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.235</v>
+        <v>3.049</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.715</v>
+        <v>14.632</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.467</v>
+        <v>5.527</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>2.987</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.665</v>
+        <v>3.709</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>4.169</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>4.467</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>4.924</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.311</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.429</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.507</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>3.735</v>
+        <v>49.902</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.189</v>
+        <v>10.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.028</v>
+        <v>3.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.749</v>
+        <v>6.624</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.441</v>
+        <v>4.134</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.099</v>
+        <v>0.68</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.782</v>
+        <v>7.611</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.522</v>
+        <v>2.843</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.156</v>
+        <v>3.333</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.288</v>
+        <v>4.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.482</v>
+        <v>4.843</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.803</v>
+        <v>13.245</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.099</v>
+        <v>2.352</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.525</v>
+        <v>3.982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45038.52083333334</v>
+        <v>40442.56944444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.072</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.381</v>
+        <v>6.719</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.472</v>
+        <v>0.168</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.63</v>
+        <v>19.574</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.123</v>
+        <v>15.844</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.209</v>
+        <v>6.651</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.94</v>
+        <v>25.944</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.289</v>
+        <v>10.851</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.832000000000001</v>
+        <v>5.249</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.823</v>
+        <v>7.266</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.03</v>
+        <v>7.954</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.589</v>
+        <v>8.445</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.108</v>
+        <v>2.251</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.453</v>
+        <v>7.121</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.556</v>
+        <v>9.868</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.401</v>
+        <v>6.074</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.403</v>
+        <v>0.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.428</v>
+        <v>0.471</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>186.957</v>
+        <v>101.376</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.535</v>
+        <v>19.892</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.022</v>
+        <v>6.574</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.166</v>
+        <v>13.074</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.456</v>
+        <v>7.346</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.676</v>
+        <v>1.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.977</v>
+        <v>13.071</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.382</v>
+        <v>5.703</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.887</v>
+        <v>5.592</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.535</v>
+        <v>6.685</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.41</v>
+        <v>8.648</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.297</v>
+        <v>23.322</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.525</v>
+        <v>3.999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.522</v>
+        <v>8.010999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45038.52777777778</v>
+        <v>40442.57638888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.67</v>
+        <v>15.117</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.96</v>
+        <v>11.434</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.398</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.18</v>
+        <v>33.242</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.23</v>
+        <v>27.208</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.46</v>
+        <v>11.68</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.17</v>
+        <v>45.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.67</v>
+        <v>18.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.97</v>
+        <v>8.606999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.81</v>
+        <v>12.369</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.82</v>
+        <v>13.411</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>14.207</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.3</v>
+        <v>3.838</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.9</v>
+        <v>12.009</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.5</v>
+        <v>16.955</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.77</v>
+        <v>10.094</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.143</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.608</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.23</v>
+        <v>175.789</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.08</v>
+        <v>33.595</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.76</v>
+        <v>11.086</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.66</v>
+        <v>22.461</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.94</v>
+        <v>12.145</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.723</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.6</v>
+        <v>22.424</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.8</v>
+        <v>9.731999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.92</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.85</v>
+        <v>10.629</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>14.305</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.38</v>
+        <v>40.761</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.6</v>
+        <v>6.509</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.07</v>
+        <v>13.712</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40442.58332175926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_357.xlsx
+++ b/DATA_goal/Junction_Flooding_357.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40442.55555555555</v>
+        <v>45038.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.427</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.211</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.561</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.533</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.486</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15.002</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.211</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.579</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.239</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.747</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.607</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.615</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.139</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.876</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.271</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.709</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.413</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.366</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.184</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.362</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.286</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.958</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.106999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.031</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.902</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.612</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.257</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.304</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.802</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.737</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40442.5625</v>
+        <v>45038.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.353</v>
+        <v>2.132</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.438</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.981999999999999</v>
+        <v>0.712</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.825</v>
+        <v>1.299</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.049</v>
+        <v>1.235</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.632</v>
+        <v>3.715</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.527</v>
+        <v>0.467</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.987</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.709</v>
+        <v>1.665</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.169</v>
+        <v>0.429</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.467</v>
+        <v>0.18</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.133</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>3.736</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>4.924</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>3.311</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>49.902</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>6.624</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>4.134</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>7.611</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>2.843</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>4.181</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>4.843</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.647</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>13.245</v>
+        <v>2.803</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.352</v>
+        <v>0.099</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.982</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40442.56944444445</v>
+        <v>45038.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.803000000000001</v>
+        <v>17.072</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.719</v>
+        <v>12.381</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.168</v>
+        <v>0.472</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.574</v>
+        <v>34.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.844</v>
+        <v>29.123</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.651</v>
+        <v>13.209</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.944</v>
+        <v>42.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.851</v>
+        <v>19.289</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.249</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.266</v>
+        <v>13.823</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.954</v>
+        <v>14.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.445</v>
+        <v>14.589</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.251</v>
+        <v>4.108</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.121</v>
+        <v>12.453</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.868</v>
+        <v>18.556</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.074</v>
+        <v>10.401</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.101</v>
+        <v>0.403</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.471</v>
+        <v>0.428</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.376</v>
+        <v>186.957</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.892</v>
+        <v>35.535</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.574</v>
+        <v>12.022</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.074</v>
+        <v>24.166</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.346</v>
+        <v>12.456</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.676</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.071</v>
+        <v>21.977</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.703</v>
+        <v>10.382</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.592</v>
+        <v>8.887</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.685</v>
+        <v>10.535</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.648</v>
+        <v>15.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.435</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.322</v>
+        <v>38.297</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.999</v>
+        <v>6.525</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.010999999999999</v>
+        <v>14.522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40442.57638888889</v>
+        <v>45038.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.117</v>
+        <v>9.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.434</v>
+        <v>6.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.398</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.242</v>
+        <v>19.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.208</v>
+        <v>16.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.68</v>
+        <v>7.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.03</v>
+        <v>30.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.46</v>
+        <v>10.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.606999999999999</v>
+        <v>4.97</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.369</v>
+        <v>7.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.411</v>
+        <v>7.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.207</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.838</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.009</v>
+        <v>6.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.955</v>
+        <v>10.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.094</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.143</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.608</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.789</v>
+        <v>101.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.595</v>
+        <v>20.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.086</v>
+        <v>6.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.461</v>
+        <v>13.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.145</v>
+        <v>6.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.723</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.424</v>
+        <v>14.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.731999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.992000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.629</v>
+        <v>5.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.305</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.761</v>
+        <v>27.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.509</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.712</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.58332175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>
